--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -404,10 +404,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+    <t>Codigos obligados por estandar</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -1220,7 +1220,7 @@
     <t>Identidad de Género</t>
   </si>
   <si>
-    <t>2023-06-08T21:42:18-04:00</t>
+    <t>2023-06-11T16:05:51-04:00</t>
   </si>
   <si>
     <t xml:space="preserve">Extensión para dato es de autoidentificación, por lo tanto, es una información que la persona entrega y el modelo de atención debe garantizar las condiciones y los mecanismos de privacidad y confidencialidad a través de un protocolo de aplicación local </t>
@@ -6750,7 +6750,7 @@
         <v>45</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>46</v>
@@ -18199,7 +18199,7 @@
         <v>45</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J122" t="s" s="2">
         <v>46</v>
@@ -24329,7 +24329,7 @@
         <v>45</v>
       </c>
       <c r="I180" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J180" t="s" s="2">
         <v>46</v>
